--- a/data/trans_orig/P70C3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70C3_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9157B301-D685-485F-9266-C33D10BDAA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2E77D21-FBA7-4211-853E-0AF5EB2FCC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C5734341-25EF-4F1F-964E-C912D92103CC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F24522AD-86BA-4A00-8BC1-BF45056309E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="364">
   <si>
     <t>Población según si le resulta difícil concentrarse en su trabajo debido a sus responsabilidades familiares en 2023 (Tasa respuesta: 42,51%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>53,55%</t>
   </si>
   <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
   </si>
   <si>
     <t>64,82%</t>
   </si>
   <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
   </si>
   <si>
     <t>59,27%</t>
   </si>
   <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
@@ -104,28 +104,28 @@
     <t>27,82%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
   </si>
   <si>
     <t>24,61%</t>
   </si>
   <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
   </si>
   <si>
     <t>26,19%</t>
   </si>
   <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
   </si>
   <si>
     <t>Varias veces al año</t>
@@ -134,28 +134,28 @@
     <t>10,52%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
   </si>
   <si>
     <t>7,6%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
   </si>
   <si>
     <t>Varias veces al mes</t>
@@ -167,19 +167,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>20,75%</t>
+    <t>22,43%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>12,21%</t>
+    <t>12,77%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>11,47%</t>
+    <t>12,2%</t>
   </si>
   <si>
     <t>Varias veces a la semana</t>
@@ -188,22 +188,22 @@
     <t>3,94%</t>
   </si>
   <si>
-    <t>13,7%</t>
+    <t>16,5%</t>
   </si>
   <si>
     <t>3,67%</t>
   </si>
   <si>
-    <t>18,32%</t>
+    <t>17,31%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
   </si>
   <si>
     <t>A diario</t>
@@ -230,886 +230,898 @@
     <t>57,06%</t>
   </si>
   <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
   </si>
   <si>
     <t>57,71%</t>
   </si>
   <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
   </si>
   <si>
     <t>57,37%</t>
   </si>
   <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
   </si>
   <si>
     <t>19,9%</t>
   </si>
   <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
   </si>
   <si>
     <t>27,49%</t>
   </si>
   <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
   </si>
   <si>
     <t>23,53%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
   </si>
   <si>
     <t>9,31%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
   </si>
   <si>
     <t>7,64%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
   </si>
   <si>
     <t>4,66%</t>
   </si>
   <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
   </si>
   <si>
     <t>6,55%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>5,46%</t>
   </si>
   <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
   </si>
   <si>
     <t>57,07%</t>
   </si>
   <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
     <t>55,85%</t>
   </si>
   <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
   </si>
   <si>
     <t>22,67%</t>
   </si>
   <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
   </si>
   <si>
     <t>25,81%</t>
   </si>
   <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
   </si>
   <si>
     <t>24,08%</t>
   </si>
   <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
   </si>
   <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
   </si>
   <si>
     <t>7,86%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
+    <t>9,16%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>8,96%</t>
   </si>
   <si>
     <t>6,86%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
   </si>
   <si>
     <t>6,33%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
+    <t>5,81%</t>
+  </si>
+  <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>4,79%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
   </si>
   <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>2,82%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
+    <t>4,43%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>2,63%</t>
@@ -1527,7 +1539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840CC173-042D-4053-88A4-8E3D9250AF67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A702721B-2263-49B2-9D43-1E1ADE8B28DF}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2196,10 +2208,10 @@
         <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,13 +2226,13 @@
         <v>18341</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H15" s="7">
         <v>9</v>
@@ -2229,13 +2241,13 @@
         <v>8985</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M15" s="7">
         <v>20</v>
@@ -2244,13 +2256,13 @@
         <v>27326</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P15" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="Q15" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,13 +2277,13 @@
         <v>3245</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2280,13 +2292,13 @@
         <v>2415</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2295,13 +2307,13 @@
         <v>5660</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,7 +2369,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2369,13 +2381,13 @@
         <v>267759</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>270</v>
@@ -2384,13 +2396,13 @@
         <v>185529</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>531</v>
@@ -2399,13 +2411,13 @@
         <v>453288</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2420,13 +2432,13 @@
         <v>101758</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>157</v>
@@ -2435,13 +2447,13 @@
         <v>102750</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>265</v>
@@ -2450,13 +2462,13 @@
         <v>204508</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,13 +2483,13 @@
         <v>49384</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>40</v>
@@ -2486,13 +2498,13 @@
         <v>30340</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>91</v>
@@ -2501,13 +2513,13 @@
         <v>79724</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,13 +2534,13 @@
         <v>40156</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>42</v>
@@ -2537,13 +2549,13 @@
         <v>30627</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>77</v>
@@ -2552,13 +2564,13 @@
         <v>70783</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,13 +2585,13 @@
         <v>12976</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -2588,13 +2600,13 @@
         <v>19886</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -2603,13 +2615,13 @@
         <v>32863</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,13 +2636,13 @@
         <v>7595</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -2639,10 +2651,10 @@
         <v>6673</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>165</v>
@@ -2851,7 +2863,7 @@
         <v>192</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>87</v>
@@ -2860,13 +2872,13 @@
         <v>68434</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,13 +2893,13 @@
         <v>31029</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>43</v>
@@ -2896,13 +2908,13 @@
         <v>28502</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M28" s="7">
         <v>74</v>
@@ -2911,13 +2923,13 @@
         <v>59530</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,13 +2944,13 @@
         <v>19931</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -2947,13 +2959,13 @@
         <v>17622</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M29" s="7">
         <v>47</v>
@@ -2962,13 +2974,13 @@
         <v>37553</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +2995,13 @@
         <v>15132</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -2998,13 +3010,13 @@
         <v>15074</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>27</v>
@@ -3013,13 +3025,13 @@
         <v>30206</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,7 +3087,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3087,13 +3099,13 @@
         <v>166159</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>199</v>
@@ -3102,13 +3114,13 @@
         <v>115770</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>385</v>
@@ -3117,13 +3129,13 @@
         <v>281929</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3150,13 @@
         <v>87446</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H33" s="7">
         <v>112</v>
@@ -3153,13 +3165,13 @@
         <v>62276</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M33" s="7">
         <v>209</v>
@@ -3168,13 +3180,13 @@
         <v>149723</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3201,13 @@
         <v>26266</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H34" s="7">
         <v>31</v>
@@ -3204,13 +3216,13 @@
         <v>20529</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M34" s="7">
         <v>60</v>
@@ -3219,13 +3231,13 @@
         <v>46795</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,13 +3252,13 @@
         <v>22970</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H35" s="7">
         <v>29</v>
@@ -3255,13 +3267,13 @@
         <v>17289</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M35" s="7">
         <v>53</v>
@@ -3270,13 +3282,13 @@
         <v>40259</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3303,13 @@
         <v>12121</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -3306,13 +3318,13 @@
         <v>5569</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M36" s="7">
         <v>25</v>
@@ -3321,13 +3333,13 @@
         <v>17690</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,13 +3354,13 @@
         <v>5928</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>266</v>
+        <v>109</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -3357,13 +3369,13 @@
         <v>4387</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M37" s="7">
         <v>13</v>
@@ -3372,13 +3384,13 @@
         <v>10315</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,7 +3446,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3446,13 +3458,13 @@
         <v>13063</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H39" s="7">
         <v>17</v>
@@ -3461,13 +3473,13 @@
         <v>9259</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M39" s="7">
         <v>35</v>
@@ -3476,13 +3488,13 @@
         <v>22322</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>121</v>
+        <v>284</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3509,13 @@
         <v>4250</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H40" s="7">
         <v>12</v>
@@ -3512,13 +3524,13 @@
         <v>5324</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M40" s="7">
         <v>20</v>
@@ -3527,13 +3539,13 @@
         <v>9574</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,13 +3560,13 @@
         <v>1004</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -3563,13 +3575,13 @@
         <v>623</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -3578,13 +3590,13 @@
         <v>1627</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,13 +3611,13 @@
         <v>1456</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -3614,13 +3626,13 @@
         <v>1685</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M42" s="7">
         <v>5</v>
@@ -3629,13 +3641,13 @@
         <v>3141</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,7 +3668,7 @@
         <v>57</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H43" s="7">
         <v>2</v>
@@ -3665,13 +3677,13 @@
         <v>1054</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M43" s="7">
         <v>2</v>
@@ -3680,13 +3692,13 @@
         <v>1054</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,7 +3719,7 @@
         <v>57</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -3716,13 +3728,13 @@
         <v>1086</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -3731,13 +3743,13 @@
         <v>1086</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3817,13 @@
         <v>1052351</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H46" s="7">
         <v>1072</v>
@@ -3820,13 +3832,13 @@
         <v>816329</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="M46" s="7">
         <v>1997</v>
@@ -3835,13 +3847,13 @@
         <v>1868681</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3868,13 @@
         <v>417528</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H47" s="7">
         <v>563</v>
@@ -3871,13 +3883,13 @@
         <v>388222</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M47" s="7">
         <v>983</v>
@@ -3886,13 +3898,13 @@
         <v>805750</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +3919,13 @@
         <v>146624</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="H48" s="7">
         <v>158</v>
@@ -3922,13 +3934,13 @@
         <v>118268</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>333</v>
+        <v>84</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M48" s="7">
         <v>293</v>
@@ -3937,13 +3949,13 @@
         <v>264892</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>336</v>
+        <v>190</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,13 +3970,13 @@
         <v>126396</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H49" s="7">
         <v>134</v>
@@ -3973,13 +3985,13 @@
         <v>95224</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M49" s="7">
         <v>244</v>
@@ -3988,13 +4000,13 @@
         <v>221620</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>220</v>
+        <v>349</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>37</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,13 +4021,13 @@
         <v>66876</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H50" s="7">
         <v>79</v>
@@ -4024,13 +4036,13 @@
         <v>56483</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>34</v>
+        <v>355</v>
       </c>
       <c r="M50" s="7">
         <v>136</v>
@@ -4039,13 +4051,13 @@
         <v>123358</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>350</v>
+        <v>189</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,13 +4072,13 @@
         <v>31900</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>106</v>
+        <v>360</v>
       </c>
       <c r="H51" s="7">
         <v>32</v>
@@ -4075,13 +4087,13 @@
         <v>29636</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>354</v>
+        <v>207</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>356</v>
+        <v>53</v>
       </c>
       <c r="M51" s="7">
         <v>64</v>
@@ -4093,10 +4105,10 @@
         <v>60</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>357</v>
+        <v>152</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,7 +4164,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70C3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70C3_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2E77D21-FBA7-4211-853E-0AF5EB2FCC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A137DC9-ACB1-4F24-80C3-1F3F8A33A7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F24522AD-86BA-4A00-8BC1-BF45056309E0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5998F932-860A-4BBE-87E5-F29F5D759744}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1539,7 +1539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A702721B-2263-49B2-9D43-1E1ADE8B28DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D75441-0917-4EB5-B900-DBF3876D7BC2}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70C3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70C3_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A137DC9-ACB1-4F24-80C3-1F3F8A33A7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{784A3ABE-A9F2-4B36-89D0-3B94FBBF133D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5998F932-860A-4BBE-87E5-F29F5D759744}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A12B04E-E5BC-41EC-8F1F-632C77EDDFDE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="360">
   <si>
     <t>Población según si le resulta difícil concentrarse en su trabajo debido a sus responsabilidades familiares en 2023 (Tasa respuesta: 42,51%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>53,55%</t>
   </si>
   <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
   </si>
   <si>
     <t>64,82%</t>
   </si>
   <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
   </si>
   <si>
     <t>59,27%</t>
   </si>
   <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
@@ -104,28 +104,28 @@
     <t>27,82%</t>
   </si>
   <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
   </si>
   <si>
     <t>24,61%</t>
   </si>
   <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
   </si>
   <si>
     <t>26,19%</t>
   </si>
   <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
   </si>
   <si>
     <t>Varias veces al año</t>
@@ -134,28 +134,28 @@
     <t>10,52%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
   </si>
   <si>
     <t>7,6%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
   </si>
   <si>
     <t>Varias veces al mes</t>
@@ -167,19 +167,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>22,43%</t>
+    <t>20,75%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>12,77%</t>
+    <t>12,21%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>12,2%</t>
+    <t>11,47%</t>
   </si>
   <si>
     <t>Varias veces a la semana</t>
@@ -188,22 +188,22 @@
     <t>3,94%</t>
   </si>
   <si>
-    <t>16,5%</t>
+    <t>13,7%</t>
   </si>
   <si>
     <t>3,67%</t>
   </si>
   <si>
-    <t>17,31%</t>
+    <t>18,32%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
   </si>
   <si>
     <t>A diario</t>
@@ -230,898 +230,886 @@
     <t>57,06%</t>
   </si>
   <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
   </si>
   <si>
     <t>57,71%</t>
   </si>
   <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
   </si>
   <si>
     <t>57,37%</t>
   </si>
   <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
   </si>
   <si>
     <t>19,9%</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
   </si>
   <si>
     <t>27,49%</t>
   </si>
   <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
   </si>
   <si>
     <t>23,53%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
   </si>
   <si>
     <t>9,31%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
   </si>
   <si>
     <t>7,64%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
   </si>
   <si>
     <t>4,66%</t>
   </si>
   <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>1,3%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
+    <t>1,36%</t>
   </si>
   <si>
     <t>2,63%</t>
@@ -1539,7 +1527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D75441-0917-4EB5-B900-DBF3876D7BC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5799120F-11CD-4B32-8CC8-BC1BFD438A89}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2208,10 +2196,10 @@
         <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,13 +2214,13 @@
         <v>18341</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H15" s="7">
         <v>9</v>
@@ -2241,13 +2229,13 @@
         <v>8985</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M15" s="7">
         <v>20</v>
@@ -2256,13 +2244,13 @@
         <v>27326</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,13 +2265,13 @@
         <v>3245</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2292,13 +2280,13 @@
         <v>2415</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2307,13 +2295,13 @@
         <v>5660</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,7 +2357,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2381,13 +2369,13 @@
         <v>267759</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>270</v>
@@ -2396,13 +2384,13 @@
         <v>185529</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>531</v>
@@ -2411,13 +2399,13 @@
         <v>453288</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,13 +2420,13 @@
         <v>101758</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>157</v>
@@ -2447,13 +2435,13 @@
         <v>102750</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>265</v>
@@ -2462,13 +2450,13 @@
         <v>204508</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,13 +2471,13 @@
         <v>49384</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>40</v>
@@ -2498,13 +2486,13 @@
         <v>30340</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>91</v>
@@ -2513,13 +2501,13 @@
         <v>79724</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2522,13 @@
         <v>40156</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>42</v>
@@ -2549,13 +2537,13 @@
         <v>30627</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>77</v>
@@ -2564,13 +2552,13 @@
         <v>70783</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,13 +2573,13 @@
         <v>12976</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -2600,13 +2588,13 @@
         <v>19886</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -2615,13 +2603,13 @@
         <v>32863</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2624,13 @@
         <v>7595</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -2651,10 +2639,10 @@
         <v>6673</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>54</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>165</v>
@@ -2863,7 +2851,7 @@
         <v>192</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="M27" s="7">
         <v>87</v>
@@ -2872,13 +2860,13 @@
         <v>68434</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2881,13 @@
         <v>31029</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>43</v>
@@ -2908,13 +2896,13 @@
         <v>28502</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M28" s="7">
         <v>74</v>
@@ -2923,13 +2911,13 @@
         <v>59530</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2932,13 @@
         <v>19931</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -2959,13 +2947,13 @@
         <v>17622</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M29" s="7">
         <v>47</v>
@@ -2974,13 +2962,13 @@
         <v>37553</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +2983,13 @@
         <v>15132</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -3010,13 +2998,13 @@
         <v>15074</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>27</v>
@@ -3025,13 +3013,13 @@
         <v>30206</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,7 +3075,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3099,13 +3087,13 @@
         <v>166159</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>199</v>
@@ -3114,13 +3102,13 @@
         <v>115770</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>385</v>
@@ -3129,13 +3117,13 @@
         <v>281929</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3138,13 @@
         <v>87446</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H33" s="7">
         <v>112</v>
@@ -3165,13 +3153,13 @@
         <v>62276</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M33" s="7">
         <v>209</v>
@@ -3180,13 +3168,13 @@
         <v>149723</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,13 +3189,13 @@
         <v>26266</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H34" s="7">
         <v>31</v>
@@ -3216,13 +3204,13 @@
         <v>20529</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M34" s="7">
         <v>60</v>
@@ -3231,13 +3219,13 @@
         <v>46795</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3240,13 @@
         <v>22970</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H35" s="7">
         <v>29</v>
@@ -3267,13 +3255,13 @@
         <v>17289</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M35" s="7">
         <v>53</v>
@@ -3282,13 +3270,13 @@
         <v>40259</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3291,13 @@
         <v>12121</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -3318,13 +3306,13 @@
         <v>5569</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>263</v>
+        <v>103</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M36" s="7">
         <v>25</v>
@@ -3333,13 +3321,13 @@
         <v>17690</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,13 +3342,13 @@
         <v>5928</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>109</v>
+        <v>266</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -3369,13 +3357,13 @@
         <v>4387</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>270</v>
+        <v>205</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M37" s="7">
         <v>13</v>
@@ -3384,13 +3372,13 @@
         <v>10315</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,7 +3434,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3458,13 +3446,13 @@
         <v>13063</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H39" s="7">
         <v>17</v>
@@ -3473,13 +3461,13 @@
         <v>9259</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M39" s="7">
         <v>35</v>
@@ -3488,13 +3476,13 @@
         <v>22322</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>284</v>
+        <v>121</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,13 +3497,13 @@
         <v>4250</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H40" s="7">
         <v>12</v>
@@ -3524,13 +3512,13 @@
         <v>5324</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M40" s="7">
         <v>20</v>
@@ -3539,13 +3527,13 @@
         <v>9574</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,13 +3548,13 @@
         <v>1004</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>296</v>
+        <v>238</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -3575,13 +3563,13 @@
         <v>623</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -3590,13 +3578,13 @@
         <v>1627</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3599,13 @@
         <v>1456</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -3626,13 +3614,13 @@
         <v>1685</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M42" s="7">
         <v>5</v>
@@ -3641,13 +3629,13 @@
         <v>3141</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,7 +3656,7 @@
         <v>57</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H43" s="7">
         <v>2</v>
@@ -3677,13 +3665,13 @@
         <v>1054</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M43" s="7">
         <v>2</v>
@@ -3692,13 +3680,13 @@
         <v>1054</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,7 +3707,7 @@
         <v>57</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -3728,13 +3716,13 @@
         <v>1086</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -3743,13 +3731,13 @@
         <v>1086</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,13 +3805,13 @@
         <v>1052351</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H46" s="7">
         <v>1072</v>
@@ -3832,13 +3820,13 @@
         <v>816329</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M46" s="7">
         <v>1997</v>
@@ -3847,13 +3835,13 @@
         <v>1868681</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,13 +3856,13 @@
         <v>417528</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H47" s="7">
         <v>563</v>
@@ -3883,13 +3871,13 @@
         <v>388222</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M47" s="7">
         <v>983</v>
@@ -3898,13 +3886,13 @@
         <v>805750</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,13 +3907,13 @@
         <v>146624</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H48" s="7">
         <v>158</v>
@@ -3934,13 +3922,13 @@
         <v>118268</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>84</v>
+        <v>333</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M48" s="7">
         <v>293</v>
@@ -3949,13 +3937,13 @@
         <v>264892</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>190</v>
+        <v>336</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3958,13 @@
         <v>126396</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H49" s="7">
         <v>134</v>
@@ -3985,13 +3973,13 @@
         <v>95224</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M49" s="7">
         <v>244</v>
@@ -4000,13 +3988,13 @@
         <v>221620</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>349</v>
+        <v>220</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>199</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4009,13 @@
         <v>66876</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H50" s="7">
         <v>79</v>
@@ -4036,13 +4024,13 @@
         <v>56483</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>355</v>
+        <v>34</v>
       </c>
       <c r="M50" s="7">
         <v>136</v>
@@ -4051,13 +4039,13 @@
         <v>123358</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>189</v>
+        <v>350</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,13 +4060,13 @@
         <v>31900</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>360</v>
+        <v>106</v>
       </c>
       <c r="H51" s="7">
         <v>32</v>
@@ -4087,13 +4075,13 @@
         <v>29636</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>207</v>
+        <v>354</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>53</v>
+        <v>356</v>
       </c>
       <c r="M51" s="7">
         <v>64</v>
@@ -4105,10 +4093,10 @@
         <v>60</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>152</v>
+        <v>357</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,7 +4152,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70C3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70C3_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{784A3ABE-A9F2-4B36-89D0-3B94FBBF133D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25CD2354-2CD5-498A-BD55-2A4C224B3E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A12B04E-E5BC-41EC-8F1F-632C77EDDFDE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{183B0469-10E9-4E6A-BB69-3750F39DA2DB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="364">
   <si>
     <t>Población según si le resulta difícil concentrarse en su trabajo debido a sus responsabilidades familiares en 2023 (Tasa respuesta: 42,51%)</t>
   </si>
@@ -65,1054 +65,1066 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca/ casi nunca</t>
   </si>
   <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
   </si>
   <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
   </si>
   <si>
     <t>Varias veces al año</t>
   </si>
   <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>Varias veces al mes</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>Varias veces al mes</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1527,8 +1539,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5799120F-11CD-4B32-8CC8-BC1BFD438A89}">
-  <dimension ref="A1:Q53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AED738E-DD90-4ED4-96CC-0F4F1F541BFE}">
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1648,7 +1660,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>47631</v>
+        <v>48883</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1663,7 +1675,7 @@
         <v>35</v>
       </c>
       <c r="I4" s="7">
-        <v>59410</v>
+        <v>53553</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1678,7 +1690,7 @@
         <v>61</v>
       </c>
       <c r="N4" s="7">
-        <v>107040</v>
+        <v>102436</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1699,7 +1711,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>24742</v>
+        <v>24366</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1714,7 +1726,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="7">
-        <v>22559</v>
+        <v>19587</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1729,7 +1741,7 @@
         <v>30</v>
       </c>
       <c r="N5" s="7">
-        <v>47300</v>
+        <v>43953</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1750,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>9356</v>
+        <v>10752</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1765,7 +1777,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>4362</v>
+        <v>3659</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1780,7 +1792,7 @@
         <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>13718</v>
+        <v>14411</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1801,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>3712</v>
+        <v>3600</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1816,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1954</v>
+        <v>1762</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1831,7 +1843,7 @@
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>5666</v>
+        <v>5362</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>46</v>
@@ -1852,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>3506</v>
+        <v>3016</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -1867,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>3366</v>
+        <v>2677</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>51</v>
@@ -1882,7 +1894,7 @@
         <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>6872</v>
+        <v>5693</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>53</v>
@@ -1954,7 +1966,7 @@
         <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>88947</v>
+        <v>90617</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1969,7 +1981,7 @@
         <v>56</v>
       </c>
       <c r="I10" s="7">
-        <v>91651</v>
+        <v>81238</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>61</v>
@@ -1984,7 +1996,7 @@
         <v>103</v>
       </c>
       <c r="N10" s="7">
-        <v>180597</v>
+        <v>171855</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>61</v>
@@ -2007,7 +2019,7 @@
         <v>136</v>
       </c>
       <c r="D11" s="7">
-        <v>202264</v>
+        <v>203357</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>63</v>
@@ -2022,7 +2034,7 @@
         <v>164</v>
       </c>
       <c r="I11" s="7">
-        <v>187810</v>
+        <v>230174</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>66</v>
@@ -2037,7 +2049,7 @@
         <v>300</v>
       </c>
       <c r="N11" s="7">
-        <v>390074</v>
+        <v>433530</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>69</v>
@@ -2058,7 +2070,7 @@
         <v>57</v>
       </c>
       <c r="D12" s="7">
-        <v>70554</v>
+        <v>66559</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>72</v>
@@ -2073,7 +2085,7 @@
         <v>88</v>
       </c>
       <c r="I12" s="7">
-        <v>89443</v>
+        <v>78961</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>75</v>
@@ -2088,7 +2100,7 @@
         <v>145</v>
       </c>
       <c r="N12" s="7">
-        <v>159997</v>
+        <v>145520</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>78</v>
@@ -2109,7 +2121,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>32996</v>
+        <v>32545</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>81</v>
@@ -2124,7 +2136,7 @@
         <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>21598</v>
+        <v>19309</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>84</v>
@@ -2139,7 +2151,7 @@
         <v>46</v>
       </c>
       <c r="N13" s="7">
-        <v>54593</v>
+        <v>51853</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>87</v>
@@ -2160,7 +2172,7 @@
         <v>17</v>
       </c>
       <c r="D14" s="7">
-        <v>27073</v>
+        <v>27879</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>90</v>
@@ -2175,7 +2187,7 @@
         <v>16</v>
       </c>
       <c r="I14" s="7">
-        <v>15168</v>
+        <v>13952</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>93</v>
@@ -2190,7 +2202,7 @@
         <v>33</v>
       </c>
       <c r="N14" s="7">
-        <v>42240</v>
+        <v>41831</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>96</v>
@@ -2211,7 +2223,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="7">
-        <v>18341</v>
+        <v>17071</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>99</v>
@@ -2226,7 +2238,7 @@
         <v>9</v>
       </c>
       <c r="I15" s="7">
-        <v>8985</v>
+        <v>8290</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>102</v>
@@ -2241,7 +2253,7 @@
         <v>20</v>
       </c>
       <c r="N15" s="7">
-        <v>27326</v>
+        <v>25360</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>105</v>
@@ -2250,7 +2262,7 @@
         <v>106</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,46 +2274,46 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>3245</v>
+        <v>2932</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>2415</v>
+        <v>2232</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>5660</v>
+        <v>5164</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,7 +2325,7 @@
         <v>250</v>
       </c>
       <c r="D17" s="7">
-        <v>354472</v>
+        <v>350343</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>61</v>
@@ -2328,7 +2340,7 @@
         <v>300</v>
       </c>
       <c r="I17" s="7">
-        <v>325419</v>
+        <v>352916</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>61</v>
@@ -2343,7 +2355,7 @@
         <v>550</v>
       </c>
       <c r="N17" s="7">
-        <v>679891</v>
+        <v>703258</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>61</v>
@@ -2357,7 +2369,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2366,46 +2378,46 @@
         <v>261</v>
       </c>
       <c r="D18" s="7">
-        <v>267759</v>
+        <v>260772</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>270</v>
       </c>
       <c r="I18" s="7">
-        <v>185529</v>
+        <v>175769</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>531</v>
       </c>
       <c r="N18" s="7">
-        <v>453288</v>
+        <v>436541</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,46 +2429,46 @@
         <v>108</v>
       </c>
       <c r="D19" s="7">
-        <v>101758</v>
+        <v>94755</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>157</v>
       </c>
       <c r="I19" s="7">
-        <v>102750</v>
+        <v>93529</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>265</v>
       </c>
       <c r="N19" s="7">
-        <v>204508</v>
+        <v>188284</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,46 +2480,46 @@
         <v>51</v>
       </c>
       <c r="D20" s="7">
-        <v>49384</v>
+        <v>47695</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>40</v>
       </c>
       <c r="I20" s="7">
-        <v>30340</v>
+        <v>27739</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>91</v>
       </c>
       <c r="N20" s="7">
-        <v>79724</v>
+        <v>75435</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,46 +2531,46 @@
         <v>35</v>
       </c>
       <c r="D21" s="7">
-        <v>40156</v>
+        <v>39173</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>42</v>
       </c>
       <c r="I21" s="7">
-        <v>30627</v>
+        <v>28558</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>77</v>
       </c>
       <c r="N21" s="7">
-        <v>70783</v>
+        <v>67731</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,46 +2582,46 @@
         <v>11</v>
       </c>
       <c r="D22" s="7">
-        <v>12976</v>
+        <v>12307</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
       </c>
       <c r="I22" s="7">
-        <v>19886</v>
+        <v>18362</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
       </c>
       <c r="N22" s="7">
-        <v>32863</v>
+        <v>30669</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,46 +2633,46 @@
         <v>7</v>
       </c>
       <c r="D23" s="7">
-        <v>7595</v>
+        <v>7282</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
       </c>
       <c r="I23" s="7">
-        <v>6673</v>
+        <v>6260</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
       </c>
       <c r="N23" s="7">
-        <v>14268</v>
+        <v>13542</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,7 +2684,7 @@
         <v>473</v>
       </c>
       <c r="D24" s="7">
-        <v>479628</v>
+        <v>461983</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>61</v>
@@ -2687,7 +2699,7 @@
         <v>546</v>
       </c>
       <c r="I24" s="7">
-        <v>375807</v>
+        <v>350218</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>61</v>
@@ -2702,7 +2714,7 @@
         <v>1019</v>
       </c>
       <c r="N24" s="7">
-        <v>855435</v>
+        <v>812201</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>61</v>
@@ -2716,7 +2728,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2725,46 +2737,46 @@
         <v>298</v>
       </c>
       <c r="D25" s="7">
-        <v>355476</v>
+        <v>536807</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>387</v>
       </c>
       <c r="I25" s="7">
-        <v>258552</v>
+        <v>265385</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>685</v>
       </c>
       <c r="N25" s="7">
-        <v>614028</v>
+        <v>802192</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,46 +2788,46 @@
         <v>136</v>
       </c>
       <c r="D26" s="7">
-        <v>128778</v>
+        <v>121893</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>178</v>
       </c>
       <c r="I26" s="7">
-        <v>105870</v>
+        <v>96370</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>314</v>
       </c>
       <c r="N26" s="7">
-        <v>234648</v>
+        <v>218264</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,46 +2839,46 @@
         <v>25</v>
       </c>
       <c r="D27" s="7">
-        <v>27618</v>
+        <v>26133</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="H27" s="7">
         <v>62</v>
       </c>
       <c r="I27" s="7">
-        <v>40816</v>
+        <v>36859</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>87</v>
       </c>
       <c r="N27" s="7">
-        <v>68434</v>
+        <v>62993</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,46 +2890,46 @@
         <v>31</v>
       </c>
       <c r="D28" s="7">
-        <v>31029</v>
+        <v>29821</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>58</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>43</v>
       </c>
       <c r="I28" s="7">
-        <v>28502</v>
+        <v>26197</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M28" s="7">
         <v>74</v>
       </c>
       <c r="N28" s="7">
-        <v>59530</v>
+        <v>56017</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,46 +2941,46 @@
         <v>18</v>
       </c>
       <c r="D29" s="7">
-        <v>19931</v>
+        <v>19358</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
       </c>
       <c r="I29" s="7">
-        <v>17622</v>
+        <v>16170</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>47</v>
       </c>
       <c r="N29" s="7">
-        <v>37553</v>
+        <v>35528</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,46 +2992,46 @@
         <v>15</v>
       </c>
       <c r="D30" s="7">
-        <v>15132</v>
+        <v>14412</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
       </c>
       <c r="I30" s="7">
-        <v>15074</v>
+        <v>12616</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M30" s="7">
         <v>27</v>
       </c>
       <c r="N30" s="7">
-        <v>30206</v>
+        <v>27029</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,7 +3043,7 @@
         <v>523</v>
       </c>
       <c r="D31" s="7">
-        <v>577963</v>
+        <v>748424</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>61</v>
@@ -3046,7 +3058,7 @@
         <v>711</v>
       </c>
       <c r="I31" s="7">
-        <v>466435</v>
+        <v>453598</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>61</v>
@@ -3061,7 +3073,7 @@
         <v>1234</v>
       </c>
       <c r="N31" s="7">
-        <v>1044398</v>
+        <v>1202022</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>61</v>
@@ -3075,7 +3087,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3084,46 +3096,46 @@
         <v>186</v>
       </c>
       <c r="D32" s="7">
-        <v>166159</v>
+        <v>158642</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>199</v>
       </c>
       <c r="I32" s="7">
-        <v>115770</v>
+        <v>107874</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>385</v>
       </c>
       <c r="N32" s="7">
-        <v>281929</v>
+        <v>266516</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,46 +3147,46 @@
         <v>97</v>
       </c>
       <c r="D33" s="7">
-        <v>87446</v>
+        <v>78998</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H33" s="7">
         <v>112</v>
       </c>
       <c r="I33" s="7">
-        <v>62276</v>
+        <v>56299</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M33" s="7">
         <v>209</v>
       </c>
       <c r="N33" s="7">
-        <v>149723</v>
+        <v>135297</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,46 +3198,46 @@
         <v>29</v>
       </c>
       <c r="D34" s="7">
-        <v>26266</v>
+        <v>24224</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H34" s="7">
         <v>31</v>
       </c>
       <c r="I34" s="7">
-        <v>20529</v>
+        <v>18338</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M34" s="7">
         <v>60</v>
       </c>
       <c r="N34" s="7">
-        <v>46795</v>
+        <v>42561</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,46 +3249,46 @@
         <v>24</v>
       </c>
       <c r="D35" s="7">
-        <v>22970</v>
+        <v>21455</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H35" s="7">
         <v>29</v>
       </c>
       <c r="I35" s="7">
-        <v>17289</v>
+        <v>15947</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M35" s="7">
         <v>53</v>
       </c>
       <c r="N35" s="7">
-        <v>40259</v>
+        <v>37402</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,46 +3300,46 @@
         <v>15</v>
       </c>
       <c r="D36" s="7">
-        <v>12121</v>
+        <v>11333</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
       </c>
       <c r="I36" s="7">
-        <v>5569</v>
+        <v>5262</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>103</v>
+        <v>258</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M36" s="7">
         <v>25</v>
       </c>
       <c r="N36" s="7">
-        <v>17690</v>
+        <v>16595</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,46 +3351,46 @@
         <v>6</v>
       </c>
       <c r="D37" s="7">
-        <v>5928</v>
+        <v>5652</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
       </c>
       <c r="I37" s="7">
-        <v>4387</v>
+        <v>4048</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M37" s="7">
         <v>13</v>
       </c>
       <c r="N37" s="7">
-        <v>10315</v>
+        <v>9700</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,7 +3402,7 @@
         <v>357</v>
       </c>
       <c r="D38" s="7">
-        <v>320891</v>
+        <v>300304</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>61</v>
@@ -3405,7 +3417,7 @@
         <v>388</v>
       </c>
       <c r="I38" s="7">
-        <v>225820</v>
+        <v>207767</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>61</v>
@@ -3420,7 +3432,7 @@
         <v>745</v>
       </c>
       <c r="N38" s="7">
-        <v>546711</v>
+        <v>508071</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>61</v>
@@ -3434,55 +3446,55 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D39" s="7">
-        <v>13063</v>
+        <v>10659</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H39" s="7">
         <v>17</v>
       </c>
       <c r="I39" s="7">
-        <v>9259</v>
+        <v>8679</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M39" s="7">
+        <v>33</v>
+      </c>
+      <c r="N39" s="7">
+        <v>19337</v>
+      </c>
+      <c r="O39" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="P39" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="L39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="M39" s="7">
-        <v>35</v>
-      </c>
-      <c r="N39" s="7">
-        <v>22322</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,46 +3506,46 @@
         <v>8</v>
       </c>
       <c r="D40" s="7">
-        <v>4250</v>
+        <v>3942</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H40" s="7">
         <v>12</v>
       </c>
       <c r="I40" s="7">
-        <v>5324</v>
+        <v>4981</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M40" s="7">
         <v>20</v>
       </c>
       <c r="N40" s="7">
-        <v>9574</v>
+        <v>8923</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,46 +3557,46 @@
         <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>1004</v>
+        <v>974</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
       </c>
       <c r="I41" s="7">
-        <v>623</v>
+        <v>586</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>293</v>
+        <v>181</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
       </c>
       <c r="N41" s="7">
-        <v>1627</v>
+        <v>1560</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>294</v>
+        <v>34</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,46 +3608,46 @@
         <v>2</v>
       </c>
       <c r="D42" s="7">
-        <v>1456</v>
+        <v>1369</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
       </c>
       <c r="I42" s="7">
-        <v>1685</v>
+        <v>1508</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M42" s="7">
         <v>5</v>
       </c>
       <c r="N42" s="7">
-        <v>3141</v>
+        <v>2876</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,37 +3668,37 @@
         <v>57</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H43" s="7">
         <v>2</v>
       </c>
       <c r="I43" s="7">
-        <v>1054</v>
+        <v>994</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M43" s="7">
         <v>2</v>
       </c>
       <c r="N43" s="7">
-        <v>1054</v>
+        <v>994</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,37 +3719,37 @@
         <v>57</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
       </c>
       <c r="I44" s="7">
-        <v>1086</v>
+        <v>1003</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
       </c>
       <c r="N44" s="7">
-        <v>1086</v>
+        <v>1003</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,10 +3758,10 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D45" s="7">
-        <v>19773</v>
+        <v>16943</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>61</v>
@@ -3764,7 +3776,7 @@
         <v>37</v>
       </c>
       <c r="I45" s="7">
-        <v>19030</v>
+        <v>17751</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>61</v>
@@ -3776,10 +3788,10 @@
         <v>61</v>
       </c>
       <c r="M45" s="7">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N45" s="7">
-        <v>38803</v>
+        <v>34694</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>61</v>
@@ -3793,55 +3805,53 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>310</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="7">
-        <v>925</v>
+        <v>2</v>
       </c>
       <c r="D46" s="7">
-        <v>1052351</v>
+        <v>1598</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>311</v>
       </c>
       <c r="F46" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H46" s="7">
-        <v>1072</v>
-      </c>
-      <c r="I46" s="7">
-        <v>816329</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="K46" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M46" s="7">
-        <v>1997</v>
+        <v>2</v>
       </c>
       <c r="N46" s="7">
-        <v>1868681</v>
+        <v>1598</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>319</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,49 +3860,47 @@
         <v>20</v>
       </c>
       <c r="C47" s="7">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="D47" s="7">
-        <v>417528</v>
+        <v>0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>321</v>
+        <v>57</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="H47" s="7">
-        <v>563</v>
-      </c>
-      <c r="I47" s="7">
-        <v>388222</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" s="7"/>
       <c r="J47" s="7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="M47" s="7">
-        <v>983</v>
+        <v>0</v>
       </c>
       <c r="N47" s="7">
-        <v>805750</v>
+        <v>0</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>327</v>
+        <v>57</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,49 +3909,47 @@
         <v>30</v>
       </c>
       <c r="C48" s="7">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="D48" s="7">
-        <v>146624</v>
+        <v>0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>329</v>
+        <v>42</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>330</v>
+        <v>57</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="H48" s="7">
-        <v>158</v>
-      </c>
-      <c r="I48" s="7">
-        <v>118268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" s="7"/>
       <c r="J48" s="7" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="M48" s="7">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="N48" s="7">
-        <v>264892</v>
+        <v>0</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>335</v>
+        <v>42</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>336</v>
+        <v>57</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,49 +3958,47 @@
         <v>40</v>
       </c>
       <c r="C49" s="7">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D49" s="7">
-        <v>126396</v>
+        <v>0</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>338</v>
+        <v>42</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>339</v>
+        <v>57</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="H49" s="7">
-        <v>134</v>
-      </c>
-      <c r="I49" s="7">
-        <v>95224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" s="7"/>
       <c r="J49" s="7" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="M49" s="7">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="N49" s="7">
-        <v>221620</v>
+        <v>0</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>344</v>
+        <v>42</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>220</v>
+        <v>57</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>37</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,49 +4007,47 @@
         <v>48</v>
       </c>
       <c r="C50" s="7">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="7">
-        <v>66876</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>305</v>
-      </c>
       <c r="G50" s="7" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="H50" s="7">
-        <v>79</v>
-      </c>
-      <c r="I50" s="7">
-        <v>56483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" s="7"/>
       <c r="J50" s="7" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>34</v>
+        <v>312</v>
       </c>
       <c r="M50" s="7">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="N50" s="7">
-        <v>123358</v>
+        <v>0</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>350</v>
+        <v>57</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,49 +4056,47 @@
         <v>56</v>
       </c>
       <c r="C51" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D51" s="7">
-        <v>31900</v>
+        <v>0</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>352</v>
+        <v>42</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>353</v>
+        <v>57</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>106</v>
+        <v>313</v>
       </c>
       <c r="H51" s="7">
-        <v>32</v>
-      </c>
-      <c r="I51" s="7">
-        <v>29636</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" s="7"/>
       <c r="J51" s="7" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="M51" s="7">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="N51" s="7">
-        <v>61536</v>
+        <v>0</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>357</v>
+        <v>57</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,63 +4105,421 @@
         <v>3</v>
       </c>
       <c r="C52" s="7">
+        <v>2</v>
+      </c>
+      <c r="D52" s="7">
+        <v>1598</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="M52" s="7">
+        <v>2</v>
+      </c>
+      <c r="N52" s="7">
+        <v>1598</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="7">
+        <v>925</v>
+      </c>
+      <c r="D53" s="7">
+        <v>1220717</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H53" s="7">
+        <v>1072</v>
+      </c>
+      <c r="I53" s="7">
+        <v>841435</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="M53" s="7">
+        <v>1997</v>
+      </c>
+      <c r="N53" s="7">
+        <v>2062152</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="7">
+        <v>420</v>
+      </c>
+      <c r="D54" s="7">
+        <v>390512</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H54" s="7">
+        <v>563</v>
+      </c>
+      <c r="I54" s="7">
+        <v>349728</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="M54" s="7">
+        <v>983</v>
+      </c>
+      <c r="N54" s="7">
+        <v>740240</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="7">
+        <v>135</v>
+      </c>
+      <c r="D55" s="7">
+        <v>142323</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H55" s="7">
+        <v>158</v>
+      </c>
+      <c r="I55" s="7">
+        <v>106490</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="M55" s="7">
+        <v>293</v>
+      </c>
+      <c r="N55" s="7">
+        <v>248813</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="7">
+        <v>110</v>
+      </c>
+      <c r="D56" s="7">
+        <v>123297</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H56" s="7">
+        <v>134</v>
+      </c>
+      <c r="I56" s="7">
+        <v>87922</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="M56" s="7">
+        <v>244</v>
+      </c>
+      <c r="N56" s="7">
+        <v>211219</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="7">
+        <v>57</v>
+      </c>
+      <c r="D57" s="7">
+        <v>63084</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H57" s="7">
+        <v>79</v>
+      </c>
+      <c r="I57" s="7">
+        <v>51755</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="M57" s="7">
+        <v>136</v>
+      </c>
+      <c r="N57" s="7">
+        <v>114840</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="7">
+        <v>32</v>
+      </c>
+      <c r="D58" s="7">
+        <v>30278</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H58" s="7">
+        <v>32</v>
+      </c>
+      <c r="I58" s="7">
+        <v>26159</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="M58" s="7">
+        <v>64</v>
+      </c>
+      <c r="N58" s="7">
+        <v>56437</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7">
         <v>1679</v>
       </c>
-      <c r="D52" s="7">
-        <v>1841674</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H52" s="7">
+      <c r="D59" s="7">
+        <v>1970211</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H59" s="7">
         <v>2038</v>
       </c>
-      <c r="I52" s="7">
-        <v>1504161</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M52" s="7">
+      <c r="I59" s="7">
+        <v>1463489</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M59" s="7">
         <v>3717</v>
       </c>
-      <c r="N52" s="7">
-        <v>3345836</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>359</v>
+      <c r="N59" s="7">
+        <v>3433701</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A53:A59"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
